--- a/data/trans_orig/IP1010-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1010-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37D5476A-ACFC-4577-A552-431120E4199B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D222EF09-A9C7-4323-8F4E-D5A7A0FCF9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{79A7196C-C694-47A6-817D-B85279517F8F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1849AC20-6003-4266-A5B5-8BDBE45F7FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -118,6 +118,57 @@
     <t>0,89%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -151,57 +202,6 @@
     <t>0,8%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
     <t>99,36%</t>
   </si>
   <si>
@@ -253,6 +253,36 @@
     <t>0,57%</t>
   </si>
   <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
     <t>99,02%</t>
   </si>
   <si>
@@ -289,36 +319,6 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
     <t>99,65%</t>
   </si>
   <si>
@@ -358,6 +358,24 @@
     <t>0,59%</t>
   </si>
   <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
     <t>98,43%</t>
   </si>
   <si>
@@ -398,24 +416,6 @@
   </si>
   <si>
     <t>1,8%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -837,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A84102-5B43-4A05-8B39-1AC776282F25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98DCB19-8D50-4CD1-8A7A-65524903205B}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1110,10 +1110,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>420</v>
+        <v>326</v>
       </c>
       <c r="D7" s="7">
-        <v>280189</v>
+        <v>215366</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1122,37 +1122,37 @@
         <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7">
+        <v>302</v>
+      </c>
+      <c r="I7" s="7">
+        <v>203975</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="7">
-        <v>394</v>
-      </c>
-      <c r="I7" s="7">
-        <v>265603</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M7" s="7">
-        <v>814</v>
+        <v>628</v>
       </c>
       <c r="N7" s="7">
-        <v>545792</v>
+        <v>419341</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1161,49 +1161,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2675</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
-        <v>1309</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>1247</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>1309</v>
+        <v>3922</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1212,10 +1212,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1227,10 +1227,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -1242,10 +1242,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -1259,55 +1259,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>326</v>
+        <v>420</v>
       </c>
       <c r="D10" s="7">
-        <v>215366</v>
+        <v>280189</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>302</v>
+        <v>394</v>
       </c>
       <c r="I10" s="7">
-        <v>203975</v>
+        <v>265603</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="7">
+        <v>814</v>
+      </c>
+      <c r="N10" s="7">
+        <v>545792</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>628</v>
-      </c>
-      <c r="N10" s="7">
-        <v>419341</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1316,46 +1316,46 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2675</v>
+        <v>1309</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="7">
         <v>2</v>
       </c>
-      <c r="I11" s="7">
-        <v>1247</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="N11" s="7">
+        <v>1309</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="7">
-        <v>6</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3922</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>53</v>
@@ -1367,10 +1367,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -1382,10 +1382,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -1397,10 +1397,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -1583,7 +1583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162FA52A-AA5F-4EBD-8606-FDE961881004}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62FE85E-3E67-48FE-8BFC-2FE0A1EA1720}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1856,49 +1856,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="D7" s="7">
-        <v>267705</v>
+        <v>240100</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
+        <v>316</v>
+      </c>
+      <c r="I7" s="7">
+        <v>226083</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="7">
-        <v>362</v>
-      </c>
-      <c r="I7" s="7">
-        <v>254202</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>73</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M7" s="7">
-        <v>756</v>
+        <v>648</v>
       </c>
       <c r="N7" s="7">
-        <v>521907</v>
+        <v>466183</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,49 +1907,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2649</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2095</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2095</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="7">
-        <v>4</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2649</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,10 +1958,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1973,10 +1973,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -1988,10 +1988,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -2005,55 +2005,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>394</v>
       </c>
       <c r="D10" s="7">
-        <v>240100</v>
+        <v>267705</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="7">
+        <v>362</v>
+      </c>
+      <c r="I10" s="7">
+        <v>254202</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7">
-        <v>316</v>
-      </c>
-      <c r="I10" s="7">
-        <v>226083</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="7">
+        <v>756</v>
+      </c>
+      <c r="N10" s="7">
+        <v>521907</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="7">
-        <v>648</v>
-      </c>
-      <c r="N10" s="7">
-        <v>466183</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,43 +2062,43 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>2649</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>88</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2095</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2649</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2095</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>91</v>
@@ -2113,10 +2113,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -2128,10 +2128,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -2143,10 +2143,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -2175,10 +2175,10 @@
         <v>93</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>1015</v>
@@ -2202,7 +2202,7 @@
         <v>1450326</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>96</v>
@@ -2226,10 +2226,10 @@
         <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2253,7 +2253,7 @@
         <v>4744</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>101</v>
@@ -2329,7 +2329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F53EC0A-95C3-4BB8-8C55-311B58591D99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C02E8F1-2F34-41F0-ACF5-48C0D91F7EA3}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2602,10 +2602,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="D7" s="7">
-        <v>277216</v>
+        <v>249408</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2614,37 +2614,37 @@
         <v>107</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="I7" s="7">
-        <v>267246</v>
+        <v>235333</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7">
+        <v>722</v>
+      </c>
+      <c r="N7" s="7">
+        <v>484741</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="M7" s="7">
-        <v>749</v>
-      </c>
-      <c r="N7" s="7">
-        <v>544462</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,49 +2653,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>4413</v>
+        <v>644</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="7">
-        <v>524</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="N8" s="7">
+        <v>644</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="7">
-        <v>7</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4937</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,10 +2704,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -2719,10 +2719,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -2734,10 +2734,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -2751,55 +2751,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="D10" s="7">
-        <v>249408</v>
+        <v>277216</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="7">
+        <v>374</v>
+      </c>
+      <c r="I10" s="7">
+        <v>267246</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="7">
-        <v>360</v>
-      </c>
-      <c r="I10" s="7">
-        <v>235333</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M10" s="7">
-        <v>722</v>
+        <v>749</v>
       </c>
       <c r="N10" s="7">
-        <v>484741</v>
+        <v>544462</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,46 +2808,46 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4413</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>644</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>524</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="7">
+        <v>7</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4937</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>644</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>125</v>
@@ -2859,10 +2859,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -2874,10 +2874,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -2889,10 +2889,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -2948,7 +2948,7 @@
         <v>1443634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>59</v>
@@ -2999,7 +2999,7 @@
         <v>5581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>64</v>

--- a/data/trans_orig/IP1010-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1010-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D222EF09-A9C7-4323-8F4E-D5A7A0FCF9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13363B0F-FCC9-479F-AF88-480F3AC8E757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1849AC20-6003-4266-A5B5-8BDBE45F7FA4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C0006CC-BC7E-4A12-907E-077BE28034B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="162">
   <si>
     <t>Menores según si padecen trastornos mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,385 +67,463 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos mentales en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos mentales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos mentales en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos mentales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>99,83%</t>
   </si>
 </sst>
 </file>
@@ -456,7 +534,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -552,39 +630,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -636,7 +714,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -747,13 +825,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -762,6 +833,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -826,19 +904,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98DCB19-8D50-4CD1-8A7A-65524903205B}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09296AEF-8829-4FEC-A9EA-6F098045E8AC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -955,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>222488</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -970,85 +1068,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>210196</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="M4" s="7">
-        <v>653</v>
-      </c>
-      <c r="N4" s="7">
-        <v>432684</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>182</v>
+      </c>
+      <c r="D5" s="7">
+        <v>121380</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>673</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>162</v>
+      </c>
+      <c r="I5" s="7">
+        <v>106171</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>344</v>
+      </c>
+      <c r="N5" s="7">
+        <v>227551</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>673</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1057,153 +1155,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>326</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>215366</v>
+        <v>1976</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1247</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>5</v>
+      </c>
+      <c r="N7" s="7">
+        <v>3223</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" s="7">
-        <v>302</v>
-      </c>
-      <c r="I7" s="7">
-        <v>203975</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="7">
-        <v>628</v>
-      </c>
-      <c r="N7" s="7">
-        <v>419341</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>379</v>
       </c>
       <c r="D8" s="7">
-        <v>2675</v>
+        <v>251780</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7">
+        <v>377</v>
+      </c>
+      <c r="I8" s="7">
+        <v>251958</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="7">
+        <v>756</v>
+      </c>
+      <c r="N8" s="7">
+        <v>503738</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1247</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="7">
-        <v>6</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3922</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1212,153 +1310,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>420</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>280189</v>
+        <v>1373</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>265603</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
-        <v>814</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>545792</v>
+        <v>1373</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D11" s="7">
-        <v>1309</v>
+        <v>140142</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>127548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>401</v>
       </c>
       <c r="N11" s="7">
-        <v>1309</v>
+        <v>267690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,153 +1465,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1079</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>718042</v>
+        <v>1309</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>679774</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>2095</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1397816</v>
+        <v>1309</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>308</v>
       </c>
       <c r="D14" s="7">
-        <v>4658</v>
+        <v>204740</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>286</v>
       </c>
       <c r="I14" s="7">
-        <v>1247</v>
+        <v>194097</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>594</v>
       </c>
       <c r="N14" s="7">
-        <v>5905</v>
+        <v>398837</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,55 +1620,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4658</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1247</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="7">
+        <v>9</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5905</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1079</v>
+      </c>
+      <c r="D17" s="7">
+        <v>718042</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="I17" s="7">
+        <v>679774</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2095</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1397816</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1583,8 +1842,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62FE85E-3E67-48FE-8BFC-2FE0A1EA1720}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0170BC2C-FC8A-4A2B-990B-CE2D4C603A65}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1600,7 +1859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1701,100 +1960,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>237688</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H4" s="7">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>224548</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="M4" s="7">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>462236</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>144513</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>146281</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>290794</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,153 +2062,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>240100</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="H7" s="7">
-        <v>316</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>226083</v>
+        <v>2095</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="M7" s="7">
-        <v>648</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>466183</v>
+        <v>2095</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>267101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>334</v>
       </c>
       <c r="I8" s="7">
-        <v>2095</v>
+        <v>232381</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>705</v>
       </c>
       <c r="N8" s="7">
-        <v>2095</v>
+        <v>499481</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,153 +2217,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>267705</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>254202</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
-        <v>756</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>521907</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7">
-        <v>2649</v>
+        <v>158571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>154834</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>448</v>
       </c>
       <c r="N11" s="7">
-        <v>2649</v>
+        <v>313405</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,153 +2372,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1062</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>745493</v>
+        <v>2649</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="H13" s="7">
-        <v>1015</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>704833</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M13" s="7">
-        <v>2077</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1450326</v>
+        <v>2649</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>258</v>
       </c>
       <c r="D14" s="7">
-        <v>2649</v>
+        <v>175308</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>243</v>
       </c>
       <c r="I14" s="7">
-        <v>2095</v>
+        <v>171337</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>501</v>
       </c>
       <c r="N14" s="7">
-        <v>4744</v>
+        <v>346645</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,55 +2527,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2649</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2095</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="7">
+        <v>7</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4744</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1062</v>
+      </c>
+      <c r="D17" s="7">
+        <v>745493</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1015</v>
+      </c>
+      <c r="I17" s="7">
+        <v>704833</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2077</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1450326</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2084</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1455070</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2329,8 +2749,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C02E8F1-2F34-41F0-ACF5-48C0D91F7EA3}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA62787-1FC1-489B-8A01-DA3181ABAABE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2346,7 +2766,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2447,97 +2867,97 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>213163</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>201268</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>414431</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>124164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>131654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>255818</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2549,153 +2969,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>249408</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>235333</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>484741</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>380</v>
       </c>
       <c r="D8" s="7">
-        <v>644</v>
+        <v>258061</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>210517</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>712</v>
       </c>
       <c r="N8" s="7">
-        <v>644</v>
+        <v>468578</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,153 +3124,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>375</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>277216</v>
+        <v>5057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>267246</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
-        <v>749</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>544462</v>
+        <v>5057</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>256</v>
       </c>
       <c r="D11" s="7">
-        <v>4413</v>
+        <v>183515</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>272</v>
       </c>
       <c r="I11" s="7">
-        <v>524</v>
+        <v>188899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>528</v>
       </c>
       <c r="N11" s="7">
-        <v>4937</v>
+        <v>372414</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,153 +3279,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1058</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>739787</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="H13" s="7">
-        <v>1060</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>703847</v>
+        <v>524</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
-        <v>2118</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>1443634</v>
+        <v>524</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
-        <v>5057</v>
+        <v>174048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="I14" s="7">
-        <v>524</v>
+        <v>172777</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="N14" s="7">
-        <v>5581</v>
+        <v>346824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,55 +3434,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5057</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>524</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" s="7">
+        <v>8</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5581</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1058</v>
+      </c>
+      <c r="D17" s="7">
+        <v>739787</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1060</v>
+      </c>
+      <c r="I17" s="7">
+        <v>703847</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2118</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1443634</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>15</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1010-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1010-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13363B0F-FCC9-479F-AF88-480F3AC8E757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B411706B-2D0D-44B6-8451-CF2DA090EAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C0006CC-BC7E-4A12-907E-077BE28034B8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ACF765A7-C18E-4AE5-9875-BEFC5D67FE8F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="166">
   <si>
     <t>Menores según si padecen trastornos mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -115,25 +115,28 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>2,13%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,7%</t>
+    <t>1,95%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>1,42%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>97,9%</t>
+    <t>97,87%</t>
   </si>
   <si>
     <t>99,76%</t>
@@ -142,13 +145,16 @@
     <t>99,51%</t>
   </si>
   <si>
-    <t>98,3%</t>
+    <t>98,05%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>98,58%</t>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -157,363 +163,372 @@
     <t>0,97%</t>
   </si>
   <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos mentales en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos mentales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos mentales en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos mentales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>1,36%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
+    <t>99,31%</t>
+  </si>
+  <si>
     <t>0,68%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
+    <t>1,35%</t>
+  </si>
+  <si>
     <t>0,07%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
     <t>99,32%</t>
   </si>
   <si>
+    <t>98,65%</t>
+  </si>
+  <si>
     <t>99,71%</t>
   </si>
   <si>
@@ -521,9 +536,6 @@
   </si>
   <si>
     <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
   </si>
 </sst>
 </file>
@@ -935,7 +947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09296AEF-8829-4FEC-A9EA-6F098045E8AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0728B203-74D4-4419-88FF-E1CF1A94386F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1247,10 +1259,10 @@
         <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1265,13 +1277,13 @@
         <v>251780</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
         <v>377</v>
@@ -1280,10 +1292,10 @@
         <v>251958</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -1295,13 +1307,13 @@
         <v>503738</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1357,7 +1369,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1369,13 +1381,13 @@
         <v>1373</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1390,7 +1402,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1399,13 +1411,13 @@
         <v>1373</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1420,10 +1432,10 @@
         <v>140142</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -1438,7 +1450,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -1450,10 +1462,10 @@
         <v>267690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -1512,7 +1524,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1530,7 +1542,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1545,7 +1557,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1554,13 +1566,13 @@
         <v>1309</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1575,10 +1587,10 @@
         <v>204740</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1593,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1605,10 +1617,10 @@
         <v>398837</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1682,10 +1694,10 @@
         <v>28</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -1694,13 +1706,13 @@
         <v>1247</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -1709,13 +1721,13 @@
         <v>5905</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,13 +1742,13 @@
         <v>718042</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>1016</v>
@@ -1745,10 +1757,10 @@
         <v>679774</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -1842,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0170BC2C-FC8A-4A2B-990B-CE2D4C603A65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A59E80C-E567-4128-8C40-B567CDE9BE98}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2139,10 +2151,10 @@
         <v>80</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2151,13 +2163,13 @@
         <v>2095</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,7 +2187,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2187,13 +2199,13 @@
         <v>232381</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="M8" s="7">
         <v>705</v>
@@ -2205,10 +2217,10 @@
         <v>68</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,7 +2276,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2282,7 +2294,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2297,7 +2309,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2312,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,7 +2342,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2345,7 +2357,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2360,7 +2372,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2419,7 +2431,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2431,13 +2443,13 @@
         <v>2649</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2452,7 +2464,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2461,13 +2473,13 @@
         <v>2649</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2494,13 @@
         <v>175308</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -2500,7 +2512,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2512,13 +2524,13 @@
         <v>346645</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2601,7 @@
         <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>110</v>
@@ -2607,7 +2619,7 @@
         <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2616,13 +2628,13 @@
         <v>4744</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2649,13 @@
         <v>745493</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>1015</v>
@@ -2652,13 +2664,13 @@
         <v>704833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>2077</v>
@@ -2667,13 +2679,13 @@
         <v>1450326</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,7 +2761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA62787-1FC1-489B-8A01-DA3181ABAABE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7053CB-930C-47B2-A69E-F064E960D77C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2766,7 +2778,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2879,7 +2891,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2894,7 +2906,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2909,7 +2921,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,7 +2939,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2942,7 +2954,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2957,7 +2969,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3034,7 +3046,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3049,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3064,7 +3076,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,7 +3094,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3097,7 +3109,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3112,7 +3124,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3171,7 +3183,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3183,13 +3195,13 @@
         <v>5057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3204,7 +3216,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3213,13 +3225,13 @@
         <v>5057</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3246,13 @@
         <v>183515</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H11" s="7">
         <v>272</v>
@@ -3252,7 +3264,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3264,13 +3276,13 @@
         <v>372414</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,7 +3338,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3344,7 +3356,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3359,7 +3371,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3368,13 +3380,13 @@
         <v>524</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3404,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3404,10 +3416,10 @@
         <v>172777</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3419,10 +3431,10 @@
         <v>346824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3493,13 +3505,13 @@
         <v>5057</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3508,13 +3520,13 @@
         <v>524</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3523,13 +3535,13 @@
         <v>5581</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3556,13 @@
         <v>739787</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H17" s="7">
         <v>1060</v>
@@ -3559,10 +3571,10 @@
         <v>703847</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3574,13 +3586,13 @@
         <v>1443634</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP1010-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1010-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B411706B-2D0D-44B6-8451-CF2DA090EAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CC9C35E-0940-4FB1-AA43-89D9845064B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ACF765A7-C18E-4AE5-9875-BEFC5D67FE8F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BE1A79DA-3A76-4A01-BB47-8FD507B82661}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="160">
   <si>
     <t>Menores según si padecen trastornos mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
@@ -94,136 +94,130 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
     <t>0,78%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>2,06%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>97,87%</t>
+    <t>97,94%</t>
   </si>
   <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
+    <t>98,62%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>3,27%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>1,59%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>96,73%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>98,41%</t>
+    <t>98,2%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
     <t>0,67%</t>
   </si>
   <si>
+    <t>2,24%</t>
+  </si>
+  <si>
     <t>0,33%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>97,94%</t>
-  </si>
-  <si>
     <t>99,33%</t>
   </si>
   <si>
+    <t>97,76%</t>
+  </si>
+  <si>
     <t>99,67%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
+    <t>0,18%</t>
+  </si>
+  <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>1,36%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -232,22 +226,22 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>99,82%</t>
-  </si>
-  <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>99,25%</t>
+    <t>99,24%</t>
   </si>
   <si>
     <t>99,81%</t>
@@ -259,253 +253,247 @@
     <t>Menores según si padecen trastornos mentales en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>0,88%</t>
+  </si>
+  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
+    <t>99,12%</t>
+  </si>
+  <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
     <t>99,55%</t>
   </si>
   <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos mentales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos mentales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,31%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -514,25 +502,19 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
     <t>0,39%</t>
   </si>
   <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>98,65%</t>
-  </si>
-  <si>
     <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
   </si>
   <si>
     <t>99,61%</t>
@@ -947,7 +929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0728B203-74D4-4419-88FF-E1CF1A94386F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B231F35-676C-4DE0-8D0C-7C4FBCF5AD77}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1116,10 +1098,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>121380</v>
+        <v>106171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1131,10 +1113,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>106171</v>
+        <v>121380</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1167,25 +1149,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1220,31 +1202,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1976</v>
+        <v>1247</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1976</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1247</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>27</v>
@@ -1259,10 +1241,10 @@
         <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1271,34 +1253,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>377</v>
+      </c>
+      <c r="D8" s="7">
+        <v>251958</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>379</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>251780</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="7">
-        <v>377</v>
-      </c>
-      <c r="I8" s="7">
-        <v>251958</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>756</v>
@@ -1307,13 +1289,13 @@
         <v>503738</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1322,25 +1304,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1369,40 +1351,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1373</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1411,13 +1393,13 @@
         <v>1373</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1426,34 +1408,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>191</v>
+      </c>
+      <c r="D11" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>210</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>140142</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>191</v>
-      </c>
-      <c r="I11" s="7">
-        <v>127548</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>401</v>
@@ -1462,10 +1444,10 @@
         <v>267690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -1477,25 +1459,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1524,40 +1506,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1309</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1566,13 +1548,13 @@
         <v>1309</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1581,34 +1563,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>286</v>
+      </c>
+      <c r="D14" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>308</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>204740</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>286</v>
-      </c>
-      <c r="I14" s="7">
-        <v>194097</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>594</v>
@@ -1617,10 +1599,10 @@
         <v>398837</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1632,25 +1614,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1685,34 +1667,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1247</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="7">
         <v>7</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>4658</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1247</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -1721,13 +1703,13 @@
         <v>5905</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1736,34 +1718,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="D17" s="7">
+        <v>679774</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>1079</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>718042</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I17" s="7">
-        <v>679774</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M17" s="7">
         <v>2095</v>
@@ -1772,13 +1754,13 @@
         <v>1397816</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,25 +1769,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1834,7 +1816,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1854,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A59E80C-E567-4128-8C40-B567CDE9BE98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FB7F7A-84F1-46FB-B9D6-77B8BD2D15A9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1871,7 +1853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1984,7 +1966,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1999,7 +1981,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2014,7 +1996,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,31 +2005,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D5" s="7">
-        <v>144513</v>
+        <v>146281</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I5" s="7">
-        <v>146281</v>
+        <v>144513</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2062,7 +2044,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2074,25 +2056,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2127,34 +2109,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2095</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2095</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2163,13 +2145,13 @@
         <v>2095</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,34 +2160,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>334</v>
+      </c>
+      <c r="D8" s="7">
+        <v>232381</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="7">
         <v>371</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>267101</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>334</v>
-      </c>
-      <c r="I8" s="7">
-        <v>232381</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>705</v>
@@ -2214,13 +2196,13 @@
         <v>499481</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,25 +2211,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2276,7 +2258,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2294,7 +2276,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2309,7 +2291,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2324,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,31 +2315,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D11" s="7">
-        <v>158571</v>
+        <v>154834</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="I11" s="7">
-        <v>154834</v>
+        <v>158571</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2372,7 +2354,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2384,25 +2366,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2431,40 +2413,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2649</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2473,13 +2455,13 @@
         <v>2649</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,34 +2470,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>243</v>
+      </c>
+      <c r="D14" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>258</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>175308</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="7">
-        <v>243</v>
-      </c>
-      <c r="I14" s="7">
-        <v>171337</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>501</v>
@@ -2524,13 +2506,13 @@
         <v>346645</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,25 +2521,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2592,34 +2574,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2095</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>2649</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2095</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2628,13 +2610,13 @@
         <v>4744</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,34 +2625,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1015</v>
+      </c>
+      <c r="D17" s="7">
+        <v>704833</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="7">
         <v>1062</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>745493</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I17" s="7">
-        <v>704833</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>2077</v>
@@ -2679,13 +2661,13 @@
         <v>1450326</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,25 +2676,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2741,7 +2723,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2761,7 +2743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7053CB-930C-47B2-A69E-F064E960D77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A6A1FF-8DA5-4988-867A-C7540BCE35EA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2778,7 +2760,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2891,7 +2873,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2906,7 +2888,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2921,7 +2903,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,31 +2912,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="D5" s="7">
-        <v>124164</v>
+        <v>131654</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="I5" s="7">
-        <v>131654</v>
+        <v>124164</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2969,7 +2951,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2981,25 +2963,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3046,7 +3028,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3061,7 +3043,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3076,7 +3058,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,31 +3067,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="D8" s="7">
-        <v>258061</v>
+        <v>210517</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="I8" s="7">
-        <v>210517</v>
+        <v>258061</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3124,7 +3106,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3136,25 +3118,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3183,40 +3165,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>5057</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3225,13 +3207,13 @@
         <v>5057</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,34 +3222,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>272</v>
+      </c>
+      <c r="D11" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>256</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>183515</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="7">
-        <v>272</v>
-      </c>
-      <c r="I11" s="7">
-        <v>188899</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="M11" s="7">
         <v>528</v>
@@ -3276,13 +3258,13 @@
         <v>372414</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,25 +3273,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3338,40 +3320,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>524</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3380,13 +3362,13 @@
         <v>524</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,34 +3377,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>245</v>
+      </c>
+      <c r="D14" s="7">
+        <v>172777</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
         <v>235</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>174048</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>245</v>
-      </c>
-      <c r="I14" s="7">
-        <v>172777</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>480</v>
@@ -3431,10 +3413,10 @@
         <v>346824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3446,25 +3428,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3499,34 +3481,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>524</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="7">
         <v>7</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>5057</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>524</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3535,13 +3517,13 @@
         <v>5581</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,34 +3532,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1060</v>
+      </c>
+      <c r="D17" s="7">
+        <v>703847</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>1058</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>739787</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1060</v>
-      </c>
-      <c r="I17" s="7">
-        <v>703847</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>2118</v>
@@ -3586,13 +3568,13 @@
         <v>1443634</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,25 +3583,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3648,7 +3630,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
